--- a/src/excels/meningeal/new_tese/canonical/canonical_genes_filtered_0.2.xlsx
+++ b/src/excels/meningeal/new_tese/canonical/canonical_genes_filtered_0.2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="60">
   <si>
     <t>Cluster</t>
   </si>
@@ -51,15 +51,6 @@
     <t>Cldn5</t>
   </si>
   <si>
-    <t>Eln</t>
-  </si>
-  <si>
-    <t>Bsg</t>
-  </si>
-  <si>
-    <t>Cdh13</t>
-  </si>
-  <si>
     <t>MeV.Endothelial.0</t>
   </si>
   <si>
@@ -87,18 +78,12 @@
     <t>Myh11</t>
   </si>
   <si>
-    <t>Myom1</t>
-  </si>
-  <si>
     <t>Acta2</t>
   </si>
   <si>
     <t>Notch3</t>
   </si>
   <si>
-    <t>Tagln</t>
-  </si>
-  <si>
     <t>MeV.SMC.0</t>
   </si>
   <si>
@@ -114,9 +99,6 @@
     <t>Cdh2</t>
   </si>
   <si>
-    <t>Vtn</t>
-  </si>
-  <si>
     <t>MeV.Pericytes.0</t>
   </si>
   <si>
@@ -126,9 +108,6 @@
     <t>Col25a1</t>
   </si>
   <si>
-    <t>Fxyd5</t>
-  </si>
-  <si>
     <t>MeV.VLMC.0</t>
   </si>
   <si>
@@ -144,25 +123,13 @@
     <t>Slc7a11</t>
   </si>
   <si>
-    <t>Slc1a3</t>
-  </si>
-  <si>
-    <t>Bicc1</t>
-  </si>
-  <si>
     <t>Fgfr2</t>
   </si>
   <si>
-    <t>Cyp26b1</t>
-  </si>
-  <si>
     <t>Aldh1a2</t>
   </si>
   <si>
     <t>Pdgfra</t>
-  </si>
-  <si>
-    <t>Apod</t>
   </si>
   <si>
     <t>MeV.FibCollagen.0</t>
@@ -592,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -614,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>5.773325443267822</v>
@@ -628,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>4.508071422576904</v>
@@ -642,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>4.537421226501465</v>
@@ -656,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2.016013860702515</v>
@@ -670,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2.749971628189087</v>
@@ -684,7 +651,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>2.176357269287109</v>
@@ -695,142 +662,142 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0.9710353016853333</v>
+        <v>1.68547260761261</v>
       </c>
       <c r="D8">
-        <v>0.4086021505376344</v>
+        <v>0.7217391304347827</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
       <c r="C9">
-        <v>1.131064891815186</v>
+        <v>1.718349933624268</v>
       </c>
       <c r="D9">
-        <v>0.3691756272401434</v>
+        <v>0.6173913043478261</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>-1.095661878585815</v>
+        <v>1.572667479515076</v>
       </c>
       <c r="D10">
-        <v>0.2078853046594982</v>
+        <v>0.4956521739130435</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>1.68547260761261</v>
+        <v>2.194592714309692</v>
       </c>
       <c r="D11">
-        <v>0.7217391304347827</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>1.718349933624268</v>
+        <v>3.130635976791382</v>
       </c>
       <c r="D12">
-        <v>0.6173913043478261</v>
+        <v>0.9390243902439024</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>1.572667479515076</v>
+        <v>3.451735734939575</v>
       </c>
       <c r="D13">
-        <v>0.4956521739130435</v>
+        <v>0.9024390243902439</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>2.194592714309692</v>
+        <v>2.602516412734985</v>
       </c>
       <c r="D14">
-        <v>0.2608695652173913</v>
+        <v>0.7520325203252033</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>1.741860628128052</v>
+        <v>2.594301462173462</v>
       </c>
       <c r="D15">
-        <v>0.3043478260869565</v>
+        <v>0.475609756097561</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
       <c r="C16">
-        <v>-0.01739187724888325</v>
+        <v>2.544948816299438</v>
       </c>
       <c r="D16">
-        <v>0.208695652173913</v>
+        <v>0.3577235772357724</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>3.130635976791382</v>
+        <v>1.073985457420349</v>
       </c>
       <c r="D17">
-        <v>0.9390243902439024</v>
+        <v>0.3414634146341464</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -838,13 +805,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>3.451735734939575</v>
+        <v>3.953489542007446</v>
       </c>
       <c r="D18">
-        <v>0.9024390243902439</v>
+        <v>0.9772727272727273</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -852,209 +819,69 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>2.602516412734985</v>
+        <v>3.487768888473511</v>
       </c>
       <c r="D19">
-        <v>0.7520325203252033</v>
+        <v>0.9204545454545454</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>2.507953643798828</v>
+        <v>4.058761119842529</v>
       </c>
       <c r="D20">
-        <v>0.516260162601626</v>
+        <v>0.7727272727272727</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>2.594301462173462</v>
+        <v>1.901410222053528</v>
       </c>
       <c r="D21">
-        <v>0.475609756097561</v>
+        <v>0.8409090909090909</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>2.544948816299438</v>
+        <v>2.00059175491333</v>
       </c>
       <c r="D22">
-        <v>0.3577235772357724</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>1.073985457420349</v>
+        <v>2.596829891204834</v>
       </c>
       <c r="D23">
-        <v>0.3414634146341464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24">
-        <v>-0.4924454391002655</v>
-      </c>
-      <c r="D24">
-        <v>0.2642276422764228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
-        <v>3.953489542007446</v>
-      </c>
-      <c r="D25">
-        <v>0.9772727272727273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
-        <v>3.487768888473511</v>
-      </c>
-      <c r="D26">
-        <v>0.9204545454545454</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27">
-        <v>4.058761119842529</v>
-      </c>
-      <c r="D27">
-        <v>0.7727272727272727</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
-        <v>3.280271291732788</v>
-      </c>
-      <c r="D28">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
-        <v>2.990801811218262</v>
-      </c>
-      <c r="D29">
-        <v>0.7045454545454546</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
-        <v>1.901410222053528</v>
-      </c>
-      <c r="D30">
-        <v>0.8409090909090909</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31">
-        <v>2.00059175491333</v>
-      </c>
-      <c r="D31">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32">
-        <v>2.596829891204834</v>
-      </c>
-      <c r="D32">
         <v>0.4204545454545455</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>0.8385608196258545</v>
-      </c>
-      <c r="D33">
-        <v>0.2954545454545455</v>
       </c>
     </row>
   </sheetData>
@@ -1083,10 +910,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2">
         <v>4.552165508270264</v>
@@ -1097,10 +924,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>4.413330078125</v>
@@ -1111,10 +938,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>1.558984041213989</v>
@@ -1130,7 +957,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1149,10 +976,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>7.972146034240723</v>
@@ -1163,13 +990,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>7.498341083526611</v>
+        <v>7.259573459625244</v>
       </c>
       <c r="D3">
         <v>0.7346938775510204</v>
@@ -1177,44 +1004,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>7.259573459625244</v>
+        <v>4.040862083435059</v>
       </c>
       <c r="D4">
-        <v>0.7346938775510204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>4.040862083435059</v>
-      </c>
-      <c r="D5">
         <v>0.7959183673469388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>4.870143890380859</v>
-      </c>
-      <c r="D6">
-        <v>0.3469387755102041</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1243,10 +1042,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>3.661834955215454</v>
@@ -1257,10 +1056,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>7.087331295013428</v>
@@ -1271,10 +1070,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>3.027018070220947</v>
@@ -1285,30 +1084,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>1.602189898490906</v>
       </c>
       <c r="D5">
         <v>0.582010582010582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>1.71203076839447</v>
-      </c>
-      <c r="D6">
-        <v>0.4391534391534391</v>
       </c>
     </row>
   </sheetData>
@@ -1318,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1337,10 +1122,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>5.521671772003174</v>
@@ -1351,10 +1136,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>5.878852367401123</v>
@@ -1365,57 +1150,29 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>1.958426594734192</v>
+        <v>4.450317859649658</v>
       </c>
       <c r="D4">
-        <v>0.2956521739130435</v>
+        <v>0.9910714285714286</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>4.450317859649658</v>
+        <v>0.732900857925415</v>
       </c>
       <c r="D5">
-        <v>0.9910714285714286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
-        <v>2.094194412231445</v>
-      </c>
-      <c r="D6">
-        <v>0.3035714285714285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7">
-        <v>0.732900857925415</v>
-      </c>
-      <c r="D7">
         <v>0.4464285714285715</v>
       </c>
     </row>
@@ -1426,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1445,10 +1202,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>3.092049598693848</v>
@@ -1459,10 +1216,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>1.709404826164246</v>
@@ -1473,10 +1230,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>2.26880407333374</v>
@@ -1487,1219 +1244,743 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>2.069931268692017</v>
+        <v>0.5948231220245361</v>
       </c>
       <c r="D5">
-        <v>0.7525252525252525</v>
+        <v>0.6212121212121212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>1.393587231636047</v>
+        <v>0.5049272775650024</v>
       </c>
       <c r="D6">
-        <v>0.9292929292929293</v>
+        <v>0.4141414141414141</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>0.5948231220245361</v>
+        <v>0.7732437252998352</v>
       </c>
       <c r="D7">
-        <v>0.6212121212121212</v>
+        <v>0.3383838383838384</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>1.610349893569946</v>
+        <v>1.987727999687195</v>
       </c>
       <c r="D8">
-        <v>0.2676767676767677</v>
+        <v>0.5106382978723404</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>0.5049272775650024</v>
+        <v>0.9217204451560974</v>
       </c>
       <c r="D9">
-        <v>0.4141414141414141</v>
+        <v>0.4468085106382979</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>0.7732437252998352</v>
+        <v>0.1241240575909615</v>
       </c>
       <c r="D10">
-        <v>0.3383838383838384</v>
+        <v>0.8723404255319149</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>-0.6654971241950989</v>
+        <v>-0.4918211698532104</v>
       </c>
       <c r="D11">
-        <v>0.3181818181818182</v>
+        <v>0.5319148936170213</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>1.851935148239136</v>
+        <v>-0.08053691685199738</v>
       </c>
       <c r="D12">
-        <v>0.9361702127659575</v>
+        <v>0.4893617021276596</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>2.116896390914917</v>
+        <v>-0.4890492558479309</v>
       </c>
       <c r="D13">
-        <v>0.6808510638297872</v>
+        <v>0.4893617021276596</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>1.949560046195984</v>
+        <v>0.6248722076416016</v>
       </c>
       <c r="D14">
-        <v>0.6808510638297872</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C15">
-        <v>1.987727999687195</v>
+        <v>-0.4229618310928345</v>
       </c>
       <c r="D15">
-        <v>0.5106382978723404</v>
+        <v>0.4814814814814815</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>0.9217204451560974</v>
+        <v>-1.069194436073303</v>
       </c>
       <c r="D16">
-        <v>0.4468085106382979</v>
+        <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
       <c r="C17">
-        <v>0.1241240575909615</v>
+        <v>-1.068604230880737</v>
       </c>
       <c r="D17">
-        <v>0.8723404255319149</v>
+        <v>0.7962962962962963</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>-0.4918211698532104</v>
+        <v>1.745954513549805</v>
       </c>
       <c r="D18">
-        <v>0.5319148936170213</v>
+        <v>0.996078431372549</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
       <c r="C19">
-        <v>-0.08053691685199738</v>
+        <v>2.203364610671997</v>
       </c>
       <c r="D19">
-        <v>0.4893617021276596</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C20">
-        <v>-0.4890492558479309</v>
+        <v>0.8197135329246521</v>
       </c>
       <c r="D20">
-        <v>0.4893617021276596</v>
+        <v>0.7764705882352941</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C21">
-        <v>0.6248722076416016</v>
+        <v>1.182520389556885</v>
       </c>
       <c r="D21">
-        <v>0.2222222222222222</v>
+        <v>0.6509803921568628</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C22">
-        <v>-0.4229618310928345</v>
+        <v>0.7783747315406799</v>
       </c>
       <c r="D22">
-        <v>0.4814814814814815</v>
+        <v>0.7686274509803922</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C23">
-        <v>-0.9790895581245422</v>
+        <v>0.2573923766613007</v>
       </c>
       <c r="D23">
-        <v>0.2592592592592592</v>
+        <v>0.2980392156862745</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C24">
-        <v>-0.53492271900177</v>
+        <v>2.205923080444336</v>
       </c>
       <c r="D24">
-        <v>0.6481481481481481</v>
+        <v>0.5222222222222223</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C25">
-        <v>-1.069194436073303</v>
+        <v>0.6864585280418396</v>
       </c>
       <c r="D25">
-        <v>0.2962962962962963</v>
+        <v>0.6222222222222222</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C26">
-        <v>-1.068604230880737</v>
+        <v>0.2478690296411514</v>
       </c>
       <c r="D26">
-        <v>0.7962962962962963</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>1.745954513549805</v>
+        <v>-0.5720185041427612</v>
       </c>
       <c r="D27">
-        <v>0.996078431372549</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>2.203364610671997</v>
+        <v>2.486213684082031</v>
       </c>
       <c r="D28">
-        <v>0.7647058823529411</v>
+        <v>0.9214285714285714</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
       <c r="C29">
-        <v>1.170523643493652</v>
+        <v>1.716221690177917</v>
       </c>
       <c r="D29">
-        <v>0.9294117647058824</v>
+        <v>0.7607142857142857</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C30">
-        <v>0.8197135329246521</v>
+        <v>1.074042081832886</v>
       </c>
       <c r="D30">
-        <v>0.7764705882352941</v>
+        <v>0.9571428571428572</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C31">
-        <v>1.182520389556885</v>
+        <v>1.046085715293884</v>
       </c>
       <c r="D31">
-        <v>0.6509803921568628</v>
+        <v>0.4464285714285715</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C32">
-        <v>0.7783747315406799</v>
+        <v>0.6070688962936401</v>
       </c>
       <c r="D32">
-        <v>0.7686274509803922</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C33">
-        <v>0.4030045866966248</v>
+        <v>0.6552495956420898</v>
       </c>
       <c r="D33">
-        <v>0.4941176470588236</v>
+        <v>0.2642857142857143</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C34">
-        <v>0.2573923766613007</v>
+        <v>2.0783531665802</v>
       </c>
       <c r="D34">
-        <v>0.2980392156862745</v>
+        <v>0.8634146341463415</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C35">
-        <v>-0.5149722695350647</v>
+        <v>1.143045902252197</v>
       </c>
       <c r="D35">
-        <v>0.3647058823529412</v>
+        <v>0.9463414634146341</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C36">
-        <v>2.98327112197876</v>
+        <v>1.90752899646759</v>
       </c>
       <c r="D36">
-        <v>0.8666666666666667</v>
+        <v>0.624390243902439</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>2.145931959152222</v>
+        <v>1.031820297241211</v>
       </c>
       <c r="D37">
-        <v>0.7</v>
+        <v>0.375609756097561</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C38">
-        <v>2.205923080444336</v>
+        <v>-0.03670188039541245</v>
       </c>
       <c r="D38">
-        <v>0.5222222222222223</v>
+        <v>0.4390243902439024</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C39">
-        <v>0.6906993389129639</v>
+        <v>-0.06612278521060944</v>
       </c>
       <c r="D39">
-        <v>0.7555555555555555</v>
+        <v>0.5170731707317073</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C40">
-        <v>0.6864585280418396</v>
+        <v>2.48302435874939</v>
       </c>
       <c r="D40">
-        <v>0.6222222222222222</v>
+        <v>0.8602620087336245</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C41">
-        <v>0.2478690296411514</v>
+        <v>1.949063420295715</v>
       </c>
       <c r="D41">
-        <v>0.5111111111111111</v>
+        <v>0.9213973799126638</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C42">
-        <v>-0.5720185041427612</v>
+        <v>1.263530254364014</v>
       </c>
       <c r="D42">
-        <v>0.8</v>
+        <v>0.9781659388646288</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C43">
-        <v>2.486213684082031</v>
+        <v>1.805387377738953</v>
       </c>
       <c r="D43">
-        <v>0.9214285714285714</v>
+        <v>0.6375545851528385</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>1.492162466049194</v>
+        <v>0.8841511011123657</v>
       </c>
       <c r="D44">
-        <v>0.9</v>
+        <v>0.6724890829694323</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C45">
-        <v>1.716221690177917</v>
+        <v>0.579317033290863</v>
       </c>
       <c r="D45">
-        <v>0.7607142857142857</v>
+        <v>0.3275109170305677</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C46">
-        <v>1.074042081832886</v>
+        <v>1.356344938278198</v>
       </c>
       <c r="D46">
-        <v>0.9571428571428572</v>
+        <v>0.9829545454545454</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C47">
-        <v>1.712005496025085</v>
+        <v>1.592437863349915</v>
       </c>
       <c r="D47">
-        <v>0.5928571428571429</v>
+        <v>0.5397727272727273</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
         <v>44</v>
       </c>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
       <c r="C48">
-        <v>1.046085715293884</v>
+        <v>0.9777950644493103</v>
       </c>
       <c r="D48">
-        <v>0.4464285714285715</v>
+        <v>0.6079545454545454</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>0.6070688962936401</v>
+        <v>0.6635714173316956</v>
       </c>
       <c r="D49">
-        <v>0.6</v>
+        <v>0.6988636363636364</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C50">
-        <v>0.6552495956420898</v>
+        <v>0.949348509311676</v>
       </c>
       <c r="D50">
-        <v>0.2642857142857143</v>
+        <v>0.3011363636363636</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C51">
-        <v>-0.1382053792476654</v>
+        <v>0.3178709149360657</v>
       </c>
       <c r="D51">
-        <v>0.3142857142857143</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C52">
-        <v>2.0783531665802</v>
+        <v>1.72550106048584</v>
       </c>
       <c r="D52">
-        <v>0.8634146341463415</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C53">
-        <v>1.680137991905212</v>
+        <v>-0.4237973093986511</v>
       </c>
       <c r="D53">
-        <v>0.9463414634146341</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C54">
-        <v>1.143045902252197</v>
+        <v>-2.168280363082886</v>
       </c>
       <c r="D54">
-        <v>0.9463414634146341</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C55">
-        <v>1.90752899646759</v>
+        <v>-0.9213647246360779</v>
       </c>
       <c r="D55">
-        <v>0.624390243902439</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C56">
-        <v>1.020953178405762</v>
+        <v>-0.518498957157135</v>
       </c>
       <c r="D56">
-        <v>0.5658536585365853</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C57">
-        <v>1.031820297241211</v>
+        <v>-1.051109194755554</v>
       </c>
       <c r="D57">
-        <v>0.375609756097561</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58">
-        <v>-0.03670188039541245</v>
-      </c>
-      <c r="D58">
-        <v>0.4390243902439024</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59">
-        <v>-0.06612278521060944</v>
-      </c>
-      <c r="D59">
-        <v>0.5170731707317073</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60">
-        <v>-0.5340874791145325</v>
-      </c>
-      <c r="D60">
-        <v>0.2975609756097561</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61">
-        <v>2.079153060913086</v>
-      </c>
-      <c r="D61">
-        <v>0.9737991266375546</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62">
-        <v>2.48302435874939</v>
-      </c>
-      <c r="D62">
-        <v>0.8602620087336245</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63">
-        <v>1.949063420295715</v>
-      </c>
-      <c r="D63">
-        <v>0.9213973799126638</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64">
-        <v>1.263530254364014</v>
-      </c>
-      <c r="D64">
-        <v>0.9781659388646288</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65">
-        <v>1.805387377738953</v>
-      </c>
-      <c r="D65">
-        <v>0.6375545851528385</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66">
-        <v>2.716985464096069</v>
-      </c>
-      <c r="D66">
-        <v>0.4192139737991266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67">
-        <v>0.8841511011123657</v>
-      </c>
-      <c r="D67">
-        <v>0.6724890829694323</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68">
-        <v>0.7388767600059509</v>
-      </c>
-      <c r="D68">
-        <v>0.4890829694323144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69">
-        <v>0.579317033290863</v>
-      </c>
-      <c r="D69">
-        <v>0.3275109170305677</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70">
-        <v>-1.437014102935791</v>
-      </c>
-      <c r="D70">
-        <v>0.222707423580786</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71">
-        <v>1.356344938278198</v>
-      </c>
-      <c r="D71">
-        <v>0.9829545454545454</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72">
-        <v>1.592437863349915</v>
-      </c>
-      <c r="D72">
-        <v>0.5397727272727273</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73">
-        <v>0.9556232690811157</v>
-      </c>
-      <c r="D73">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74">
-        <v>0.9777950644493103</v>
-      </c>
-      <c r="D74">
-        <v>0.6079545454545454</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75">
-        <v>0.6635714173316956</v>
-      </c>
-      <c r="D75">
-        <v>0.6988636363636364</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76">
-        <v>0.949348509311676</v>
-      </c>
-      <c r="D76">
-        <v>0.3011363636363636</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77">
-        <v>0.3178709149360657</v>
-      </c>
-      <c r="D77">
-        <v>0.5454545454545454</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B78" t="s">
-        <v>55</v>
-      </c>
-      <c r="C78">
-        <v>-0.5242093205451965</v>
-      </c>
-      <c r="D78">
-        <v>0.3011363636363636</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79">
-        <v>-0.5088808536529541</v>
-      </c>
-      <c r="D79">
-        <v>0.2556818181818182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80">
-        <v>3.37231969833374</v>
-      </c>
-      <c r="D80">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" t="s">
-        <v>56</v>
-      </c>
-      <c r="C81">
-        <v>1.555488228797913</v>
-      </c>
-      <c r="D81">
-        <v>0.575</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82">
-        <v>1.72550106048584</v>
-      </c>
-      <c r="D82">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83">
-        <v>0.1042699292302132</v>
-      </c>
-      <c r="D83">
-        <v>0.775</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84">
-        <v>-0.4237973093986511</v>
-      </c>
-      <c r="D84">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85">
-        <v>-2.168280363082886</v>
-      </c>
-      <c r="D85">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86">
-        <v>-0.9213647246360779</v>
-      </c>
-      <c r="D86">
-        <v>0.775</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87">
-        <v>2.741829633712769</v>
-      </c>
-      <c r="D87">
-        <v>0.7976190476190477</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B88" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88">
-        <v>0.2369740903377533</v>
-      </c>
-      <c r="D88">
-        <v>0.7738095238095238</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" t="s">
-        <v>57</v>
-      </c>
-      <c r="C89">
-        <v>-0.3983448147773743</v>
-      </c>
-      <c r="D89">
-        <v>0.2738095238095238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90">
-        <v>-0.518498957157135</v>
-      </c>
-      <c r="D90">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" t="s">
-        <v>57</v>
-      </c>
-      <c r="C91">
-        <v>-1.051109194755554</v>
-      </c>
-      <c r="D91">
         <v>0.7380952380952381</v>
       </c>
     </row>
@@ -2729,10 +2010,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>4.591655254364014</v>
@@ -2743,10 +2024,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>4.291172981262207</v>
@@ -2781,10 +2062,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>1.486795902252197</v>
@@ -2795,10 +2076,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>1.669062376022339</v>
@@ -2809,10 +2090,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>1.141197919845581</v>
@@ -2823,10 +2104,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>1.23172128200531</v>
@@ -2837,10 +2118,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>2.454385995864868</v>
@@ -2851,10 +2132,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>2.471717834472656</v>
@@ -2865,10 +2146,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>2.522863388061523</v>
@@ -2879,10 +2160,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>1.580757856369019</v>
@@ -2893,10 +2174,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>2.82572340965271</v>
@@ -2907,10 +2188,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>2.229536771774292</v>
@@ -2921,10 +2202,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>3.918442964553833</v>
@@ -2935,10 +2216,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>1.804606080055237</v>
@@ -2949,10 +2230,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>2.024988889694214</v>
@@ -2963,10 +2244,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>2.495605707168579</v>
@@ -2977,10 +2258,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>0.3426379561424255</v>
@@ -2991,10 +2272,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>-0.3623339235782623</v>
@@ -3005,10 +2286,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>-1.215871691703796</v>
@@ -3043,10 +2324,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>9.29255199432373</v>
@@ -3057,10 +2338,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>8.500860214233398</v>
@@ -3071,10 +2352,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>8.342014312744141</v>
@@ -3085,10 +2366,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>9.855690002441406</v>
@@ -3099,10 +2380,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>8.931801795959473</v>
